--- a/medicine/Sexualité et sexologie/Le_Guide_du_zizi_sexuel/Le_Guide_du_zizi_sexuel.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Guide_du_zizi_sexuel/Le_Guide_du_zizi_sexuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Guide du zizi sexuel est un livre écrit par Hélène Bruller et dessiné par Zep, hors-série de la bande-dessinée Titeuf. Il s’agit d’un guide qui a pour but de répondre aux questions des 9-13 ans concernant la sexualité[1],[2]. Originellement sorti en 2001, une nouvelle édition revue et augmentée est publiée en 2020[3].
+Le Guide du zizi sexuel est un livre écrit par Hélène Bruller et dessiné par Zep, hors-série de la bande-dessinée Titeuf. Il s’agit d’un guide qui a pour but de répondre aux questions des 9-13 ans concernant la sexualité,. Originellement sorti en 2001, une nouvelle édition revue et augmentée est publiée en 2020.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De cet album a été déclinée une exposition à destination des adolescents, présentée en 2007 et en 2014 à la Cité des sciences et de l'industrie à Paris, faisant chaque fois l'objet d'une polémique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De cet album a été déclinée une exposition à destination des adolescents, présentée en 2007 et en 2014 à la Cité des sciences et de l'industrie à Paris, faisant chaque fois l'objet d'une polémique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Infox au Brésil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant sa campagne à l'élection présidentielle brésilienne de 2018 qu'il a ensuite gagnée, le candidat d'extrême droite Jair Bolsonaro relaye une infox qui accusait l'ouvrage de faire partie d'un « kit gay » distribué dans les écoles, et de pervertir la jeunesse brésilienne[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant sa campagne à l'élection présidentielle brésilienne de 2018 qu'il a ensuite gagnée, le candidat d'extrême droite Jair Bolsonaro relaye une infox qui accusait l'ouvrage de faire partie d'un « kit gay » distribué dans les écoles, et de pervertir la jeunesse brésilienne.
 </t>
         </is>
       </c>
